--- a/Test/Lawnmower/T2/Sensors_data_1000007.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000007.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8973372743740788</v>
+        <v>0.9379081844764757</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002869458251612671</v>
+        <v>0.003659795134708507</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4256920837442271</v>
+        <v>0.2377582532973907</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,118 +500,18 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9141026609264069</v>
+        <v>0.9585867616325275</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004515099888340691</v>
+        <v>0.0008761025825390108</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1546053330249465</v>
+        <v>0.14946673656118</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.7556835757625286</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.007647219834495639</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.09697856646399466</v>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9065228015299761</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.004437196225511349</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.09750555541944783</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9292660028246189</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.003713910901094119</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3026167479634462</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5236779092333359</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.007107521970293742</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5754670802770326</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
         <v>0</v>
       </c>
     </row>
